--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/18.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/18.xlsx
@@ -479,13 +479,13 @@
         <v>-18.90653139043986</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.81049055354313</v>
+        <v>-12.50604532661551</v>
       </c>
       <c r="F2" t="n">
-        <v>2.997532390985458</v>
+        <v>-1.397933349764393</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.73820476620008</v>
+        <v>-10.90577315027133</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.33936026664308</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.48433828850393</v>
+        <v>-13.01432779983984</v>
       </c>
       <c r="F3" t="n">
-        <v>3.102820690438619</v>
+        <v>-1.315032888170584</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.42580932809365</v>
+        <v>-10.80578723346907</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.78882435098894</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.02198679700225</v>
+        <v>-13.42839806181511</v>
       </c>
       <c r="F4" t="n">
-        <v>2.973390184545315</v>
+        <v>-1.47368541400662</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.07562950398601</v>
+        <v>-10.80150605043982</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.31613697799225</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.59772081446715</v>
+        <v>-13.86624394575096</v>
       </c>
       <c r="F5" t="n">
-        <v>3.123166129054662</v>
+        <v>-1.190354888208826</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.795441130870227</v>
+        <v>-10.7206087111808</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.9129255040151</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.41534821923579</v>
+        <v>-14.52919888474744</v>
       </c>
       <c r="F6" t="n">
-        <v>3.117745915678187</v>
+        <v>-1.240432946578429</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.281398044395536</v>
+        <v>-10.64011723330987</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.58389087070675</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.97707347266005</v>
+        <v>-14.971535428558</v>
       </c>
       <c r="F7" t="n">
-        <v>3.147255966283438</v>
+        <v>-1.120009945040232</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.007114299861374</v>
+        <v>-10.8178452443863</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.32580053869497</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.87494360154562</v>
+        <v>-15.57344095940351</v>
       </c>
       <c r="F8" t="n">
-        <v>3.4805598120281</v>
+        <v>-0.8492218453648118</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.397746156396076</v>
+        <v>-10.26180205039535</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.12645193441501</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.68347185583925</v>
+        <v>-16.38928781098567</v>
       </c>
       <c r="F9" t="n">
-        <v>3.529813055318673</v>
+        <v>-0.7163611561269756</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.772169742012722</v>
+        <v>-9.80388566620314</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.96591749717891</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.33193361558995</v>
+        <v>-17.13925419466826</v>
       </c>
       <c r="F10" t="n">
-        <v>3.809595567046359</v>
+        <v>-0.602353382981225</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.158166923341453</v>
+        <v>-9.337158162198447</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.83783249430507</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.28598281596937</v>
+        <v>-18.14005600849549</v>
       </c>
       <c r="F11" t="n">
-        <v>3.940440041646569</v>
+        <v>-0.4312893540512322</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.854176743659416</v>
+        <v>-9.148498078249174</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.72146585082894</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.22400703767051</v>
+        <v>-18.92601313268999</v>
       </c>
       <c r="F12" t="n">
-        <v>4.276964593890296</v>
+        <v>-0.3025789248142232</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.242831662465017</v>
+        <v>-8.695622230651029</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.59886385632236</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.85828983344362</v>
+        <v>-19.3680223689295</v>
       </c>
       <c r="F13" t="n">
-        <v>4.347296444756049</v>
+        <v>-0.3999725656538234</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.526185189514615</v>
+        <v>-8.108851401890549</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.4714791508705</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.78390255205081</v>
+        <v>-20.30893998955867</v>
       </c>
       <c r="F14" t="n">
-        <v>4.702726282303228</v>
+        <v>0.1138348593697161</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.75284904525954</v>
+        <v>-7.234940187205335</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.32819756293712</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.62334173335376</v>
+        <v>-21.12495704107777</v>
       </c>
       <c r="F15" t="n">
-        <v>4.790549449765527</v>
+        <v>0.1846511254406124</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.389760210549951</v>
+        <v>-6.918355212189557</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.16264061823031</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.42936935780462</v>
+        <v>-21.72860384820124</v>
       </c>
       <c r="F16" t="n">
-        <v>4.995496358449906</v>
+        <v>0.3077318644556791</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.991453081196119</v>
+        <v>-6.445880187237346</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.9847742721558</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.39110373995214</v>
+        <v>-22.5594806634457</v>
       </c>
       <c r="F17" t="n">
-        <v>5.349302750444711</v>
+        <v>0.5324219658253819</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.896625531713497</v>
+        <v>-6.37704085889555</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.79048345749049</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.28507236259088</v>
+        <v>-23.62520720706504</v>
       </c>
       <c r="F18" t="n">
-        <v>5.148938147754936</v>
+        <v>0.5474388371848418</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.57473817404682</v>
+        <v>-6.115168617455346</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.57870403465891</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.00736161806606</v>
+        <v>-24.16142865455362</v>
       </c>
       <c r="F19" t="n">
-        <v>5.399472454934206</v>
+        <v>0.8552388769938216</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.516464334098297</v>
+        <v>-6.101408607168691</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.36221290684179</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.41212325272086</v>
+        <v>-24.68745119812849</v>
       </c>
       <c r="F20" t="n">
-        <v>5.594757244121392</v>
+        <v>1.155209719703449</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.200141205139353</v>
+        <v>-5.814333682758164</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-14.14065307587779</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.01854562804678</v>
+        <v>-25.41196614508677</v>
       </c>
       <c r="F21" t="n">
-        <v>5.567341961970818</v>
+        <v>1.173944805069959</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.29788833815568</v>
+        <v>-5.571720218798139</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.91797472012537</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.52062234972413</v>
+        <v>-25.959879019013</v>
       </c>
       <c r="F22" t="n">
-        <v>5.670430754546569</v>
+        <v>1.463585820837465</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.219740382493417</v>
+        <v>-5.765185177890324</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-13.7099303009516</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.93170756665149</v>
+        <v>-26.47300564428877</v>
       </c>
       <c r="F23" t="n">
-        <v>5.662784849687001</v>
+        <v>1.483564674973939</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.332242540812369</v>
+        <v>-5.58894968933785</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.51721847671561</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.39922060882668</v>
+        <v>-26.79468352510998</v>
       </c>
       <c r="F24" t="n">
-        <v>5.860400068780014</v>
+        <v>1.714198681833786</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.643420394754514</v>
+        <v>-5.726091561604931</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.34172010439868</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.45003183615542</v>
+        <v>-27.00751200010508</v>
       </c>
       <c r="F25" t="n">
-        <v>5.648357131955419</v>
+        <v>1.571963903761273</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.379715230916468</v>
+        <v>-5.385783333839945</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-13.19279217625379</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.79720043060947</v>
+        <v>-27.51393536632589</v>
       </c>
       <c r="F26" t="n">
-        <v>5.741469589765774</v>
+        <v>1.969629510275861</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.42129638474179</v>
+        <v>-5.47911836079861</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.06245738163146</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.72857057911314</v>
+        <v>-27.29826586161413</v>
       </c>
       <c r="F27" t="n">
-        <v>5.794467231669081</v>
+        <v>1.854312506845938</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.340359768574239</v>
+        <v>-5.443808420034475</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.94153384330679</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.01775336428119</v>
+        <v>-27.51496965825038</v>
       </c>
       <c r="F28" t="n">
-        <v>5.565194824304775</v>
+        <v>1.651250889770767</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.513898242741318</v>
+        <v>-5.468539780102495</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.8268855926865</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.11336645193431</v>
+        <v>-27.44211099293618</v>
       </c>
       <c r="F29" t="n">
-        <v>5.653332207035275</v>
+        <v>1.821686488164356</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.584622862692322</v>
+        <v>-5.509165195820371</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.70112183129064</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.77498279268706</v>
+        <v>-27.11109830018881</v>
       </c>
       <c r="F30" t="n">
-        <v>5.516151057859669</v>
+        <v>1.68798789154465</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.763450627207459</v>
+        <v>-5.571419095832779</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.5496905206091</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.61866069675685</v>
+        <v>-26.85143865792886</v>
       </c>
       <c r="F31" t="n">
-        <v>5.503608631737295</v>
+        <v>1.565862890637029</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.677499659051527</v>
+        <v>-5.512241886988177</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.36884001718497</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.33999103077071</v>
+        <v>-26.60875973245463</v>
       </c>
       <c r="F32" t="n">
-        <v>5.535632404488157</v>
+        <v>1.568402797388324</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.983833360942234</v>
+        <v>-5.678592686895148</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.14770228540684</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.16496003407968</v>
+        <v>-26.44116516377769</v>
       </c>
       <c r="F33" t="n">
-        <v>5.579701095853407</v>
+        <v>1.64983692106386</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.318433344668227</v>
+        <v>-6.067080589117686</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.88139754885702</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.67258470880804</v>
+        <v>-25.99322511435088</v>
       </c>
       <c r="F34" t="n">
-        <v>5.592741029483767</v>
+        <v>1.570654673477101</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.558035578974656</v>
+        <v>-6.165155029705056</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.57645386277544</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.38531339985489</v>
+        <v>-25.57010807111197</v>
       </c>
       <c r="F35" t="n">
-        <v>5.523247085999884</v>
+        <v>1.550466342495159</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.74526860191418</v>
+        <v>-6.25947197937685</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.23452147150489</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.11696046850803</v>
+        <v>-25.27280805818206</v>
       </c>
       <c r="F36" t="n">
-        <v>5.560848179761321</v>
+        <v>1.539652100347894</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.845581826287486</v>
+        <v>-6.136351963453259</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-10.86253314904682</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.62736071143884</v>
+        <v>-24.88746230864153</v>
       </c>
       <c r="F37" t="n">
-        <v>5.394916333545285</v>
+        <v>1.25821995846215</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.219576549264232</v>
+        <v>-6.272826128275411</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.47654811689582</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.15022482667498</v>
+        <v>-24.25588961955667</v>
       </c>
       <c r="F38" t="n">
-        <v>5.744585557842106</v>
+        <v>1.745698762470978</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.20658898484524</v>
+        <v>-6.203502384728472</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.08671825754843</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.77941153328877</v>
+        <v>-23.8980769828923</v>
       </c>
       <c r="F39" t="n">
-        <v>5.730655347618509</v>
+        <v>1.633550096328753</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.427364487665267</v>
+        <v>-6.387187393597888</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.705936430256385</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.20171367039761</v>
+        <v>-23.40203581282498</v>
       </c>
       <c r="F40" t="n">
-        <v>5.817902453755771</v>
+        <v>1.551068588425879</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.405893111004836</v>
+        <v>-6.120667384648871</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.351972231828446</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.75027797611205</v>
+        <v>-22.89109560212378</v>
       </c>
       <c r="F41" t="n">
-        <v>6.027562591463172</v>
+        <v>1.702153763219397</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.721666363244427</v>
+        <v>-6.389884407983284</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.034774168089799</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.21404343632063</v>
+        <v>-22.45484697913462</v>
       </c>
       <c r="F42" t="n">
-        <v>6.001927862499072</v>
+        <v>1.762666386953855</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.770094791455972</v>
+        <v>-6.47351803853623</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.76478923428559</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.56710038369958</v>
+        <v>-21.80222186708026</v>
       </c>
       <c r="F43" t="n">
-        <v>5.915492479137997</v>
+        <v>1.71597923502026</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.726837822866909</v>
+        <v>-6.20850364441401</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.552549280843877</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.2858122571451</v>
+        <v>-21.64161858812081</v>
       </c>
       <c r="F44" t="n">
-        <v>6.06244048623353</v>
+        <v>1.667904298985442</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.731839082552448</v>
+        <v>-6.00832233396402</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.39897659604158</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.60914967707333</v>
+        <v>-20.77997486119829</v>
       </c>
       <c r="F45" t="n">
-        <v>5.958958924572528</v>
+        <v>1.572958918777245</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.712187535987018</v>
+        <v>-6.063755144195888</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.30374216860684</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.07229979904835</v>
+        <v>-20.23528269377112</v>
       </c>
       <c r="F46" t="n">
-        <v>5.719710182442825</v>
+        <v>1.301738773108047</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.70917630633342</v>
+        <v>-6.071492695175348</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.265036769393925</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.29804719359435</v>
+        <v>-19.34893379138627</v>
       </c>
       <c r="F47" t="n">
-        <v>5.970715812524398</v>
+        <v>1.620562531909761</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.826208401435609</v>
+        <v>-5.998987522037869</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.274977699729845</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.6231782590119</v>
+        <v>-18.73855754060215</v>
       </c>
       <c r="F48" t="n">
-        <v>5.854246686444402</v>
+        <v>1.407681687703295</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.981902066829416</v>
+        <v>-6.304640424180805</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.32696688535435</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.13677302383609</v>
+        <v>-18.1547455722839</v>
       </c>
       <c r="F49" t="n">
-        <v>5.960058678011233</v>
+        <v>1.486235504753651</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.199024817156602</v>
+        <v>-6.641793406960935</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.415988740933258</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.54524968914407</v>
+        <v>-17.62348610757234</v>
       </c>
       <c r="F50" t="n">
-        <v>5.799651783594405</v>
+        <v>1.444287766448761</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.083498336881211</v>
+        <v>-6.502962627627272</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.533771961865348</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.10474606773135</v>
+        <v>-17.16059464830028</v>
       </c>
       <c r="F51" t="n">
-        <v>5.961943969620441</v>
+        <v>1.547481297447246</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.377839489368895</v>
+        <v>-6.7331514961905</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.673443731936771</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.81312811423475</v>
+        <v>-16.72595637856066</v>
       </c>
       <c r="F52" t="n">
-        <v>5.821961067636706</v>
+        <v>1.392808831675094</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.406367617261017</v>
+        <v>-6.708171382368486</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.83068660063342</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.9207567525427</v>
+        <v>-15.73189710069692</v>
       </c>
       <c r="F53" t="n">
-        <v>5.861997329726704</v>
+        <v>1.431981001777538</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.495945153304107</v>
+        <v>-6.713028626722767</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.000161688244397</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.27826508288783</v>
+        <v>-14.99663337310558</v>
       </c>
       <c r="F54" t="n">
-        <v>5.688288655622683</v>
+        <v>1.337140359992075</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.886252885621644</v>
+        <v>-7.138685576712964</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.17818921410881</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.88486756709965</v>
+        <v>-14.47338639773316</v>
       </c>
       <c r="F55" t="n">
-        <v>5.792843786116707</v>
+        <v>1.37866914460603</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.145454297282137</v>
+        <v>-7.364999123635042</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.363387393102837</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.82794223434382</v>
+        <v>-14.37108314332791</v>
       </c>
       <c r="F56" t="n">
-        <v>5.609446807909809</v>
+        <v>1.203651240217836</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.362721062940581</v>
+        <v>-7.380657517833746</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.553006378835967</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.46840141370434</v>
+        <v>-13.94090934885732</v>
       </c>
       <c r="F57" t="n">
-        <v>5.615704928668154</v>
+        <v>1.381366158991425</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.223576068338716</v>
+        <v>-7.194118386944833</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.742218693868024</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.22377173510669</v>
+        <v>-13.82933674404013</v>
       </c>
       <c r="F58" t="n">
-        <v>5.504786938993051</v>
+        <v>1.278382104838408</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.458268689079498</v>
+        <v>-7.534334968589927</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.927251416994226</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.59204193838772</v>
+        <v>-13.23850730139872</v>
       </c>
       <c r="F59" t="n">
-        <v>5.500466479055281</v>
+        <v>1.264923217517114</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.795722794824988</v>
+        <v>-8.004505748241993</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.10462148514579</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.34580190654054</v>
+        <v>-12.65985370040011</v>
       </c>
       <c r="F60" t="n">
-        <v>5.595595151503263</v>
+        <v>1.444156843420344</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.878845825567106</v>
+        <v>-7.962558009937102</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.26865720141385</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.15639556132929</v>
+        <v>-12.61666219332525</v>
       </c>
       <c r="F61" t="n">
-        <v>5.548043907582113</v>
+        <v>1.428210418559121</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.990588630321239</v>
+        <v>-8.193480047459467</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.41598491289671</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.79639651009035</v>
+        <v>-12.30291824802613</v>
       </c>
       <c r="F62" t="n">
-        <v>5.472789350847872</v>
+        <v>1.414908638871928</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.143755481266592</v>
+        <v>-8.227009435037127</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.5470285901028</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.3711323291854</v>
+        <v>-11.75115623706442</v>
       </c>
       <c r="F63" t="n">
-        <v>5.36210702262392</v>
+        <v>1.153389889608449</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.219036222606515</v>
+        <v>-8.277794477760184</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.65759186860116</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.2682791980608</v>
+        <v>-11.5429624372753</v>
       </c>
       <c r="F64" t="n">
-        <v>5.261479582982413</v>
+        <v>1.160996517559492</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.067767755573213</v>
+        <v>-8.178882129790942</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.74536317351401</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.04669197246459</v>
+        <v>-11.39838413699412</v>
       </c>
       <c r="F65" t="n">
-        <v>5.182192596972921</v>
+        <v>1.015671956016333</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.186541126953353</v>
+        <v>-8.464333608649095</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.81316553068842</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.04298685076038</v>
+        <v>-11.49961382256634</v>
       </c>
       <c r="F66" t="n">
-        <v>5.196332284041985</v>
+        <v>1.063275569148849</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.30583819044716</v>
+        <v>-8.524073786515892</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.85627897932084</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.98112571983322</v>
+        <v>-11.27458332132275</v>
       </c>
       <c r="F67" t="n">
-        <v>5.154436914948461</v>
+        <v>0.7923958233535364</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.25175388740799</v>
+        <v>-8.380804716518883</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.87236610324477</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.65689483995788</v>
+        <v>-11.13109168217744</v>
       </c>
       <c r="F68" t="n">
-        <v>4.874078341895739</v>
+        <v>0.6006066790250914</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.262253914287054</v>
+        <v>-8.335937394680288</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.86492283815532</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.67416358740611</v>
+        <v>-11.06679538292172</v>
       </c>
       <c r="F69" t="n">
-        <v>4.81924777759459</v>
+        <v>0.4398462924315369</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.166483718999828</v>
+        <v>-8.246543150876983</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.82927553966925</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.71015432791802</v>
+        <v>-11.19657938099175</v>
       </c>
       <c r="F70" t="n">
-        <v>4.749046849757255</v>
+        <v>0.3853823126099565</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.271798203058673</v>
+        <v>-8.2982577471018</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.76374920352115</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.78838083739733</v>
+        <v>-11.4235737276616</v>
       </c>
       <c r="F71" t="n">
-        <v>4.712702617068623</v>
+        <v>0.3725780404307484</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.16695504190213</v>
+        <v>-8.090325793369507</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.67373550044707</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.737949286851</v>
+        <v>-11.28721739356502</v>
       </c>
       <c r="F72" t="n">
-        <v>4.489138453743309</v>
+        <v>0.168613054459498</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.197172076860834</v>
+        <v>-8.072323876962134</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.55589045509999</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.86926508435351</v>
+        <v>-11.48763436546616</v>
       </c>
       <c r="F73" t="n">
-        <v>4.363740377125257</v>
+        <v>-0.001390497940315043</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.85459888070423</v>
+        <v>-7.652218063376828</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.40987177010083</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.18451464447944</v>
+        <v>-11.85374752213219</v>
       </c>
       <c r="F74" t="n">
-        <v>4.400896332590076</v>
+        <v>-0.01322593970923541</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.56053266657622</v>
+        <v>-7.389141330075184</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.24347703343125</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.42195664881698</v>
+        <v>-12.17405071115502</v>
       </c>
       <c r="F75" t="n">
-        <v>4.277959608906268</v>
+        <v>-0.1490585816921434</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.305795730184756</v>
+        <v>-6.966129025259015</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.05632083216957</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.57260977761672</v>
+        <v>-12.3098440762294</v>
       </c>
       <c r="F76" t="n">
-        <v>4.152640086105266</v>
+        <v>-0.3223221174995461</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.281797539075872</v>
+        <v>-6.877834534894414</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.851658768342375</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.89718105736595</v>
+        <v>-12.62341782159158</v>
       </c>
       <c r="F77" t="n">
-        <v>4.317524548093964</v>
+        <v>-0.2793400872701595</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.105771527368865</v>
+        <v>-6.697396417129745</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.640461832849567</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.10617348762843</v>
+        <v>-13.03112522438578</v>
       </c>
       <c r="F78" t="n">
-        <v>4.191026718037206</v>
+        <v>-0.3884382468502628</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.809479621757762</v>
+        <v>-6.25241522814516</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.424841023236239</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.46593687741622</v>
+        <v>-13.34934673725677</v>
       </c>
       <c r="F79" t="n">
-        <v>3.945860255023044</v>
+        <v>-0.6920749343555738</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.805198438728518</v>
+        <v>-6.305216485505841</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.20865559370271</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.93918434823609</v>
+        <v>-13.87080006713988</v>
       </c>
       <c r="F80" t="n">
-        <v>4.173011709326992</v>
+        <v>-0.4403230430120232</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.743651523069564</v>
+        <v>-6.163348291912897</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.002067331065895</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.44874986713891</v>
+        <v>-14.30094767700479</v>
       </c>
       <c r="F81" t="n">
-        <v>4.074740884196996</v>
+        <v>-0.5235115352683506</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.623529644496728</v>
+        <v>-6.045216443372003</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.80567800979148</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.12461381673733</v>
+        <v>-14.96023677120558</v>
       </c>
       <c r="F82" t="n">
-        <v>4.115222284583613</v>
+        <v>-0.4665731102096839</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.562820636219644</v>
+        <v>-5.979754929163373</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.621449638232699</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.86967058685428</v>
+        <v>-15.52865219138196</v>
       </c>
       <c r="F83" t="n">
-        <v>4.153189962824618</v>
+        <v>-0.5025507584187472</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.495945153304107</v>
+        <v>-5.944733019061756</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.456234239532158</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.66161089344745</v>
+        <v>-16.33940613715869</v>
       </c>
       <c r="F84" t="n">
-        <v>4.177751122955696</v>
+        <v>-0.4989372828344308</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.15949915487743</v>
+        <v>-5.708456229677125</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.307449050904378</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.97323706904009</v>
+        <v>-17.74807246141421</v>
       </c>
       <c r="F85" t="n">
-        <v>4.082674819719082</v>
+        <v>-0.5192565368447897</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.847561947370465</v>
+        <v>-5.332458384365594</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.173719238660571</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.94014291081009</v>
+        <v>-18.87826550422621</v>
       </c>
       <c r="F86" t="n">
-        <v>4.028315578320235</v>
+        <v>-0.5130507852978116</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.450603325209331</v>
+        <v>-4.957481738675718</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.057484669762689</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.03650544307907</v>
+        <v>-19.8467686069429</v>
       </c>
       <c r="F87" t="n">
-        <v>3.962932617928655</v>
+        <v>-0.7216897233835582</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.390195439897607</v>
+        <v>-4.812248823252451</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.953485497723467</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.36265098252319</v>
+        <v>-21.34615149758874</v>
       </c>
       <c r="F88" t="n">
-        <v>3.893072089965205</v>
+        <v>-0.7948626039659651</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.085642291193374</v>
+        <v>-4.475946840157033</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.859010624182414</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.91141803948802</v>
+        <v>-22.86313044325385</v>
       </c>
       <c r="F89" t="n">
-        <v>3.997548666642179</v>
+        <v>-0.7174347249599972</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.213986135950815</v>
+        <v>-4.670982875590227</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.775141961002819</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.34192232488353</v>
+        <v>-24.2283826912862</v>
       </c>
       <c r="F90" t="n">
-        <v>3.924650724419448</v>
+        <v>-0.7239546917751768</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.142384331709415</v>
+        <v>-4.54024313941275</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.696717996460184</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.77635430113156</v>
+        <v>-25.73364402590797</v>
       </c>
       <c r="F91" t="n">
-        <v>3.8112713818101</v>
+        <v>-0.7562664951885567</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.018269300769853</v>
+        <v>-4.385832519697433</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.621854685613783</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.5236137614798</v>
+        <v>-27.44177059306229</v>
       </c>
       <c r="F92" t="n">
-        <v>3.841252755317653</v>
+        <v>-0.7515008969541684</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.169590137014522</v>
+        <v>-4.577935879294079</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.55178402368341</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.50963754875259</v>
+        <v>-29.31944248201696</v>
       </c>
       <c r="F93" t="n">
-        <v>3.867411176395422</v>
+        <v>-0.64092330715295</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.482509267234617</v>
+        <v>-5.050842950240066</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.482632243656187</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.61529879939308</v>
+        <v>-31.52516820327676</v>
       </c>
       <c r="F94" t="n">
-        <v>3.81043347442823</v>
+        <v>-0.6885138279826243</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.294922752118365</v>
+        <v>-4.855623622567089</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.414115691182364</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.61484693550138</v>
+        <v>-33.22807094159722</v>
       </c>
       <c r="F95" t="n">
-        <v>3.596636169022843</v>
+        <v>-0.779714809578088</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.565802497913678</v>
+        <v>-5.169380660169055</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.347604712799599</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.07049162570689</v>
+        <v>-35.6320272201836</v>
       </c>
       <c r="F96" t="n">
-        <v>3.480350335182632</v>
+        <v>-0.5446948812662634</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.773184574926619</v>
+        <v>-5.685073376801803</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.280515362867207</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.4149695724833</v>
+        <v>-37.87408408182919</v>
       </c>
       <c r="F97" t="n">
-        <v>3.431882630062562</v>
+        <v>-0.4531796844025982</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.187569052170091</v>
+        <v>-6.164434953048761</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.212994057567336</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.67151961337468</v>
+        <v>-40.06561774680856</v>
       </c>
       <c r="F98" t="n">
-        <v>2.93178284611431</v>
+        <v>-0.7982796950076556</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.297478934526382</v>
+        <v>-6.206395783656493</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.144656991056651</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.98356792601214</v>
+        <v>-42.25305352099846</v>
       </c>
       <c r="F99" t="n">
-        <v>2.892898706674383</v>
+        <v>-0.8823453715543788</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.613068894526188</v>
+        <v>-6.67466817939651</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.076299466938845</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.24200325851272</v>
+        <v>-44.55947214341398</v>
       </c>
       <c r="F100" t="n">
-        <v>2.668601374389933</v>
+        <v>-1.049232955877861</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.709519889561184</v>
+        <v>-6.866745354387472</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.003203969939251</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.3846240800754</v>
+        <v>-46.45340467249807</v>
       </c>
       <c r="F101" t="n">
-        <v>2.368866193131456</v>
+        <v>-1.129907725988577</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.639214223301115</v>
+        <v>-7.131563363967065</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.929068371027629</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.98784520791285</v>
+        <v>-49.07001922614261</v>
       </c>
       <c r="F102" t="n">
-        <v>2.099845554339669</v>
+        <v>-0.9565394517584404</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.844999039367366</v>
+        <v>-7.607311464629707</v>
       </c>
     </row>
   </sheetData>
